--- a/data/trans_orig/Q45B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Provincia-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10633</v>
+        <v>9205</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009468375261985065</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03894622199316308</v>
+        <v>0.03371820385986002</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>3085</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>921</v>
+        <v>934</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8513</v>
+        <v>8268</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01182770974073501</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003531889958332145</v>
+        <v>0.003580076323486526</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03263604450928938</v>
+        <v>0.03169693613830132</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -785,19 +785,19 @@
         <v>5670</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2002</v>
+        <v>1911</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13628</v>
+        <v>12213</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01062114583703489</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00375065928697037</v>
+        <v>0.003579249466063571</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02552779004661983</v>
+        <v>0.02287705575664794</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>8469</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3515</v>
+        <v>3365</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18506</v>
+        <v>16549</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03102027601832517</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01287348177090777</v>
+        <v>0.01232686109787011</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0677850576524269</v>
+        <v>0.06061603591544629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -835,19 +835,19 @@
         <v>17028</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9524</v>
+        <v>9936</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26207</v>
+        <v>26053</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06528010227469613</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03651193117487134</v>
+        <v>0.03809323595844159</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1004741128116926</v>
+        <v>0.09988166745770391</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -856,19 +856,19 @@
         <v>25496</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16147</v>
+        <v>16466</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38279</v>
+        <v>37076</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04775962347854158</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03024659107737624</v>
+        <v>0.03084310230544531</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07170475010740147</v>
+        <v>0.06945013906118856</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>261956</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>252395</v>
+        <v>252234</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>267933</v>
+        <v>267841</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9595113487196898</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.924491090311142</v>
+        <v>0.9239016460971378</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.981402077211885</v>
+        <v>0.9810659571849013</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>226</v>
@@ -906,19 +906,19 @@
         <v>240725</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>231735</v>
+        <v>231154</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>249382</v>
+        <v>248290</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9228921879845688</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8884252619730024</v>
+        <v>0.8861992946739503</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.956079894862522</v>
+        <v>0.9518950669568319</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>488</v>
@@ -927,19 +927,19 @@
         <v>502682</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>488285</v>
+        <v>490600</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>513312</v>
+        <v>512252</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9416192306844235</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9146508685961312</v>
+        <v>0.9189879189891862</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9615327744787915</v>
+        <v>0.9595467058840421</v>
       </c>
     </row>
     <row r="7">
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5774</v>
+        <v>6353</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003783097010516745</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01171078358925239</v>
+        <v>0.01288486765082245</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6494</v>
+        <v>6023</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003647460266125866</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0128852350671636</v>
+        <v>0.01195227668459412</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1073,19 +1073,19 @@
         <v>3703</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1035</v>
+        <v>952</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9503</v>
+        <v>8609</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003714538983621776</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001038285901491632</v>
+        <v>0.000955045064231164</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.009531114628044016</v>
+        <v>0.008635109694533794</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>6570</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2918</v>
+        <v>2762</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13420</v>
+        <v>12796</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01332369149768991</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005918635611718055</v>
+        <v>0.005602590716263853</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0272169985783217</v>
+        <v>0.0259516856019642</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -1123,19 +1123,19 @@
         <v>30679</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20203</v>
+        <v>21855</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>41827</v>
+        <v>42871</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06087677368715418</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04008949466225856</v>
+        <v>0.04336664222594724</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08299853418374284</v>
+        <v>0.08507030352439196</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -1144,19 +1144,19 @@
         <v>37248</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26807</v>
+        <v>28166</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>51365</v>
+        <v>52011</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03735954920221318</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02688713296594272</v>
+        <v>0.02825022794905958</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05151858411456092</v>
+        <v>0.05216621649439417</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>484640</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>477006</v>
+        <v>477991</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>488651</v>
+        <v>489262</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9828932114917933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9674112189273011</v>
+        <v>0.9694086820715123</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9910272418013026</v>
+        <v>0.9922671453324516</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>466</v>
@@ -1194,19 +1194,19 @@
         <v>471432</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>460078</v>
+        <v>458727</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>482031</v>
+        <v>480288</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.93547576604672</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.912945119573061</v>
+        <v>0.9102650295770855</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9565072893732338</v>
+        <v>0.9530491104237985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>922</v>
@@ -1215,19 +1215,19 @@
         <v>956072</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>941222</v>
+        <v>942522</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>966952</v>
+        <v>965913</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9589259118141651</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9440310492929874</v>
+        <v>0.9453353424375195</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9698378405619874</v>
+        <v>0.968796253130714</v>
       </c>
     </row>
     <row r="11">
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4977</v>
+        <v>4982</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002981866046712471</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01483739528360648</v>
+        <v>0.01485425987364215</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5415</v>
+        <v>6025</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.001528684085662564</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.008275907836069882</v>
+        <v>0.009209667369205267</v>
       </c>
     </row>
     <row r="13">
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5942</v>
+        <v>6475</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005901705085572796</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01863748334637099</v>
+        <v>0.02030852987699467</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1403,19 +1403,19 @@
         <v>26846</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18728</v>
+        <v>17977</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38474</v>
+        <v>38086</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08003922613008432</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05583651138214783</v>
+        <v>0.0535977303710424</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1147064436379866</v>
+        <v>0.1135511284485686</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -1424,19 +1424,19 @@
         <v>28728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19005</v>
+        <v>19119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40108</v>
+        <v>40202</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04390906249056706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02904888065552228</v>
+        <v>0.02922279227973684</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06130372457370816</v>
+        <v>0.06144651752420104</v>
       </c>
     </row>
     <row r="14">
@@ -1453,7 +1453,7 @@
         <v>316964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>312904</v>
+        <v>312371</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>318846</v>
@@ -1462,7 +1462,7 @@
         <v>0.9940982949144272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9813625166536274</v>
+        <v>0.9796914701230032</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1474,19 +1474,19 @@
         <v>307566</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>296473</v>
+        <v>295944</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>316418</v>
+        <v>316690</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9169789078232032</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8839073115707515</v>
+        <v>0.8823290298022145</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.943370107677145</v>
+        <v>0.9441829503125653</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>615</v>
@@ -1495,19 +1495,19 @@
         <v>624530</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>613298</v>
+        <v>612968</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>634430</v>
+        <v>633729</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9545622534237703</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9373946341209169</v>
+        <v>0.9368909487253698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9696944041175994</v>
+        <v>0.9686226835096381</v>
       </c>
     </row>
     <row r="15">
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7529</v>
+        <v>7600</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004253669439701917</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02099276497773717</v>
+        <v>0.02119034952824448</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4754</v>
+        <v>4262</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00252986732293649</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01279893288195463</v>
+        <v>0.01147334377365987</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9331</v>
+        <v>10144</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003376676106687449</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01277955587238876</v>
+        <v>0.01389351808995768</v>
       </c>
     </row>
     <row r="17">
@@ -1670,19 +1670,19 @@
         <v>5181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1919</v>
+        <v>1761</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12664</v>
+        <v>11543</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01444440353822866</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005349977894926656</v>
+        <v>0.004909997922484839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03530739264356163</v>
+        <v>0.03218256485830973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1691,19 +1691,19 @@
         <v>26932</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17762</v>
+        <v>19178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38719</v>
+        <v>39300</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0725032865886855</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04781704413126706</v>
+        <v>0.05162948352289848</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1042362703714928</v>
+        <v>0.1057993704079659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -1712,19 +1712,19 @@
         <v>32113</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21748</v>
+        <v>22388</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44170</v>
+        <v>44228</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04398216362234981</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02978664145751228</v>
+        <v>0.03066346115467098</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06049630656099873</v>
+        <v>0.0605764044343122</v>
       </c>
     </row>
     <row r="18">
@@ -1741,19 +1741,19 @@
         <v>351965</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>344825</v>
+        <v>344358</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>355975</v>
+        <v>356678</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9813019270220694</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9613962840918137</v>
+        <v>0.9600949895591609</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9924829821813916</v>
+        <v>0.9944420055425139</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>356</v>
@@ -1762,19 +1762,19 @@
         <v>343584</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>332451</v>
+        <v>332085</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>353343</v>
+        <v>352169</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.924966846088378</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8949934512911158</v>
+        <v>0.8940096087108937</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9512373501185901</v>
+        <v>0.9480767260568714</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>712</v>
@@ -1783,19 +1783,19 @@
         <v>695549</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>683372</v>
+        <v>683039</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>706684</v>
+        <v>705317</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9526411602709628</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9359638072180705</v>
+        <v>0.9355067557276273</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9678914241501158</v>
+        <v>0.9660193390787174</v>
       </c>
     </row>
     <row r="19">
@@ -1934,19 +1934,19 @@
         <v>5069</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1810</v>
+        <v>1746</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11768</v>
+        <v>11741</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02493293023501778</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.008900940282024122</v>
+        <v>0.008588838242719525</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05788204611059358</v>
+        <v>0.05774935647847593</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1955,19 +1955,19 @@
         <v>15760</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9068</v>
+        <v>8797</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25773</v>
+        <v>26890</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07589092782853062</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04366733331395832</v>
+        <v>0.04236066127721944</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1241056636561467</v>
+        <v>0.1294876605916974</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
@@ -1976,19 +1976,19 @@
         <v>20829</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12782</v>
+        <v>13073</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32360</v>
+        <v>31707</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05068223009641635</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03110127526326878</v>
+        <v>0.03181022201918528</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07873951180535096</v>
+        <v>0.07715125007384212</v>
       </c>
     </row>
     <row r="22">
@@ -2005,19 +2005,19 @@
         <v>198239</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>191540</v>
+        <v>191567</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>201498</v>
+        <v>201562</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9750670697649823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.942117953889407</v>
+        <v>0.9422506435215243</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9910990597179758</v>
+        <v>0.9914111617572805</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>184</v>
@@ -2026,19 +2026,19 @@
         <v>191908</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>181895</v>
+        <v>180778</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>198600</v>
+        <v>198871</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9241090721714694</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8758943363438531</v>
+        <v>0.8705123394083026</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9563326666860416</v>
+        <v>0.9576393387227806</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>385</v>
@@ -2047,19 +2047,19 @@
         <v>390147</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>378616</v>
+        <v>379269</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>398194</v>
+        <v>397903</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9493177699035836</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9212604881946489</v>
+        <v>0.9228487499261578</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9688987247367311</v>
+        <v>0.9681897779808151</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5181</v>
+        <v>5060</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003695775954798782</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01862787153077386</v>
+        <v>0.01819255618490431</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5888</v>
+        <v>6187</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001872572250340924</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01072622371637486</v>
+        <v>0.01127113849254389</v>
       </c>
     </row>
     <row r="25">
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4442</v>
+        <v>4436</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003245864057900807</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0164013611797863</v>
+        <v>0.01637960533772849</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -2235,19 +2235,19 @@
         <v>32397</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22843</v>
+        <v>23112</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44316</v>
+        <v>44513</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1164755705069309</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08212718168399642</v>
+        <v>0.08309481563859428</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1593269757399083</v>
+        <v>0.1600370314726402</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -2256,19 +2256,19 @@
         <v>33276</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23179</v>
+        <v>23481</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45359</v>
+        <v>45187</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06061698417014434</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04222415299933027</v>
+        <v>0.04277435706793496</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08262747396498071</v>
+        <v>0.0823150793219465</v>
       </c>
     </row>
     <row r="26">
@@ -2285,7 +2285,7 @@
         <v>269932</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>266369</v>
+        <v>266375</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>270811</v>
@@ -2294,7 +2294,7 @@
         <v>0.9967541359420992</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9835986388202137</v>
+        <v>0.9836203946622715</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2306,19 +2306,19 @@
         <v>244719</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>232965</v>
+        <v>232685</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>254596</v>
+        <v>254585</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8798286535382703</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8375693282491277</v>
+        <v>0.8365613109178511</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9153385927230648</v>
+        <v>0.9152993851648477</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>503</v>
@@ -2327,19 +2327,19 @@
         <v>514651</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>502024</v>
+        <v>503003</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>524620</v>
+        <v>524692</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9375104435795147</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9145091496164903</v>
+        <v>0.9162915057188213</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9556703509964151</v>
+        <v>0.9558017649036358</v>
       </c>
     </row>
     <row r="27">
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3861</v>
+        <v>4810</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001544707769957148</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.006277469207735349</v>
+        <v>0.007820244532050222</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4754</v>
+        <v>5510</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.000758061034807125</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.003793442874334693</v>
+        <v>0.004396965064860944</v>
       </c>
     </row>
     <row r="29">
@@ -2494,19 +2494,19 @@
         <v>3721</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11740</v>
+        <v>10115</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006049987461028135</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001600111825508607</v>
+        <v>0.001611064264946952</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01908922477854548</v>
+        <v>0.01644583929348607</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>57</v>
@@ -2515,19 +2515,19 @@
         <v>57342</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>44824</v>
+        <v>43663</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>71997</v>
+        <v>72315</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08984662794771081</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07023286041861343</v>
+        <v>0.06841424929325299</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1128087373852911</v>
+        <v>0.1133071182256359</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>60</v>
@@ -2536,19 +2536,19 @@
         <v>61063</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>46646</v>
+        <v>47614</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>77941</v>
+        <v>78258</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04872366007239709</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03722041055099041</v>
+        <v>0.03799279705179208</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06219099512287837</v>
+        <v>0.06244459605952511</v>
       </c>
     </row>
     <row r="30">
@@ -2565,19 +2565,19 @@
         <v>610356</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>602282</v>
+        <v>603324</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>614013</v>
+        <v>614016</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9924053047690147</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9792776730402233</v>
+        <v>0.9809715848916366</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9983506107692899</v>
+        <v>0.9983561212814172</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>564</v>
@@ -2586,19 +2586,19 @@
         <v>580877</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>566222</v>
+        <v>565904</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>593395</v>
+        <v>594556</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9101533720522892</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8871912626147088</v>
+        <v>0.8866928817743641</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9297671395813866</v>
+        <v>0.931585750706747</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1158</v>
@@ -2607,19 +2607,19 @@
         <v>1191233</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1175129</v>
+        <v>1173172</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1206469</v>
+        <v>1204902</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9505182788927958</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9376684777726935</v>
+        <v>0.9361064855080186</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9626754397068887</v>
+        <v>0.9614247568847427</v>
       </c>
     </row>
     <row r="31">
@@ -2711,19 +2711,19 @@
         <v>3466</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9831</v>
+        <v>9412</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004659488478722313</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001143550848992596</v>
+        <v>0.001133737739071564</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01321801286211484</v>
+        <v>0.01265460296166319</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2732,19 +2732,19 @@
         <v>4592</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10483</v>
+        <v>10110</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005860209028672776</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002055984542374036</v>
+        <v>0.002051507646905721</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01337983361017604</v>
+        <v>0.0129036664338522</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -2753,19 +2753,19 @@
         <v>8057</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4058</v>
+        <v>3994</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16343</v>
+        <v>16413</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005275460479768013</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002656768749269004</v>
+        <v>0.002614848365190631</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01070079378611814</v>
+        <v>0.01074656229556644</v>
       </c>
     </row>
     <row r="33">
@@ -2782,19 +2782,19 @@
         <v>23533</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>15936</v>
+        <v>14979</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>35889</v>
+        <v>33672</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03163894612597905</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02142496776659389</v>
+        <v>0.02013918039803657</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04825080986818626</v>
+        <v>0.04527112397735418</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>42</v>
@@ -2803,19 +2803,19 @@
         <v>44466</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>32415</v>
+        <v>33211</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>59445</v>
+        <v>59874</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05675208332782437</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04137122354423738</v>
+        <v>0.04238695963643954</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07586955602043599</v>
+        <v>0.07641771614106227</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>66</v>
@@ -2824,19 +2824,19 @@
         <v>67999</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>54188</v>
+        <v>53346</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>86456</v>
+        <v>85296</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0445220348474922</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03547938531810806</v>
+        <v>0.03492794388122956</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05660656703897645</v>
+        <v>0.05584765760331262</v>
       </c>
     </row>
     <row r="34">
@@ -2853,19 +2853,19 @@
         <v>716796</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>704434</v>
+        <v>705715</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>725069</v>
+        <v>726199</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9637015653952986</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9470807553115267</v>
+        <v>0.9488035040283295</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9748239704497668</v>
+        <v>0.9763431824788127</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>698</v>
@@ -2874,19 +2874,19 @@
         <v>734454</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>719502</v>
+        <v>719253</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>747336</v>
+        <v>746481</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9373877076435029</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9183052123006451</v>
+        <v>0.9179868875369067</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9538292957118761</v>
+        <v>0.9527385608439393</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1407</v>
@@ -2895,19 +2895,19 @@
         <v>1451250</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1433309</v>
+        <v>1432118</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1466136</v>
+        <v>1466232</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9502025046727398</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9384554920537782</v>
+        <v>0.9376756238127374</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9599493237828454</v>
+        <v>0.9600119367857102</v>
       </c>
     </row>
     <row r="35">
@@ -2999,19 +2999,19 @@
         <v>10392</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4749</v>
+        <v>4940</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19216</v>
+        <v>20155</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003171550351621904</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001449318221657581</v>
+        <v>0.001507571368564296</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.005864808367870647</v>
+        <v>0.00615137107274529</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>13</v>
@@ -3020,19 +3020,19 @@
         <v>12483</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>6775</v>
+        <v>6535</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>20821</v>
+        <v>20503</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.003693965023305287</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002005012643814613</v>
+        <v>0.001933857375866797</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.006161661928311479</v>
+        <v>0.006067343117861831</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>22</v>
@@ -3041,19 +3041,19 @@
         <v>22874</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>14911</v>
+        <v>15280</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>34540</v>
+        <v>35510</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.003436786386297051</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.00224035371774499</v>
+        <v>0.002295792503078388</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.005189449449453151</v>
+        <v>0.005335314983916256</v>
       </c>
     </row>
     <row r="37">
@@ -3070,19 +3070,19 @@
         <v>55303</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>42771</v>
+        <v>42493</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>70583</v>
+        <v>72606</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01687840645968696</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01305360795077747</v>
+        <v>0.01296870506884806</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02154202166483644</v>
+        <v>0.0221592749282627</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>245</v>
@@ -3091,19 +3091,19 @@
         <v>251449</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>221321</v>
+        <v>221678</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>287028</v>
+        <v>285198</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07441088019743507</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06549511887259424</v>
+        <v>0.06560074211112686</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08493962496823815</v>
+        <v>0.08439817475393135</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>299</v>
@@ -3112,19 +3112,19 @@
         <v>306752</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>276494</v>
+        <v>272713</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>343780</v>
+        <v>342009</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04608831580254832</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04154224252154648</v>
+        <v>0.04097407782747456</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05165157759822301</v>
+        <v>0.05138561051721378</v>
       </c>
     </row>
     <row r="38">
@@ -3141,19 +3141,19 @@
         <v>3210848</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3194302</v>
+        <v>3192430</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3225795</v>
+        <v>3225722</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9799500431886912</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9749001433881248</v>
+        <v>0.9743287908580693</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9845117786999074</v>
+        <v>0.9844894197820907</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3039</v>
@@ -3162,19 +3162,19 @@
         <v>3115265</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3079752</v>
+        <v>3082045</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3146847</v>
+        <v>3146420</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9218951547792597</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9113856732299949</v>
+        <v>0.9120643145761071</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9312411162820512</v>
+        <v>0.9311147108267727</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6190</v>
@@ -3183,19 +3183,19 @@
         <v>6326115</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6288387</v>
+        <v>6288471</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6356959</v>
+        <v>6361121</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9504748978111546</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9448064726065817</v>
+        <v>0.9448190043536913</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9551090887920441</v>
+        <v>0.9557345246447744</v>
       </c>
     </row>
     <row r="39">
@@ -3544,19 +3544,19 @@
         <v>6193</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14620</v>
+        <v>13962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02155845823385139</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0069615075235861</v>
+        <v>0.006931879624396048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05089607190459111</v>
+        <v>0.04860728935397738</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -3565,19 +3565,19 @@
         <v>6193</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2286</v>
+        <v>2219</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14616</v>
+        <v>14486</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01064044656148519</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00392758358627723</v>
+        <v>0.003812717566114502</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0251146644877793</v>
+        <v>0.02489109626341779</v>
       </c>
     </row>
     <row r="5">
@@ -3594,19 +3594,19 @@
         <v>3364</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8533</v>
+        <v>7729</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01141369771968556</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002995219643308073</v>
+        <v>0.002985284950868699</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02895184952249574</v>
+        <v>0.02622218415386652</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -3615,19 +3615,19 @@
         <v>15998</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9329</v>
+        <v>9288</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26378</v>
+        <v>26197</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05569305101510453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03247887591711995</v>
+        <v>0.03233581953575115</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09183150078107459</v>
+        <v>0.09120204632623496</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -3636,19 +3636,19 @@
         <v>19362</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12368</v>
+        <v>12512</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30201</v>
+        <v>31214</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03326832607048382</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02125224262198818</v>
+        <v>0.0214990080295842</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05189376784478392</v>
+        <v>0.05363420217834947</v>
       </c>
     </row>
     <row r="6">
@@ -3665,19 +3665,19 @@
         <v>291374</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>286205</v>
+        <v>287009</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>293855</v>
+        <v>293858</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9885863022803144</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9710481504775041</v>
+        <v>0.9737778158461332</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9970047803566919</v>
+        <v>0.9970147150491313</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>236</v>
@@ -3686,19 +3686,19 @@
         <v>265055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>253787</v>
+        <v>253603</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>273252</v>
+        <v>273500</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.922748490751044</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8835223497258831</v>
+        <v>0.8828809775364777</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9512848390208369</v>
+        <v>0.9521475619808268</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>514</v>
@@ -3707,19 +3707,19 @@
         <v>556429</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>544799</v>
+        <v>544065</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>565313</v>
+        <v>564604</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.956091227368031</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9361089529935654</v>
+        <v>0.9348470156757617</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9713572208210365</v>
+        <v>0.9701386586955542</v>
       </c>
     </row>
     <row r="7">
@@ -3824,19 +3824,19 @@
         <v>4072</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10360</v>
+        <v>9506</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007789692660336097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001921783297828606</v>
+        <v>0.001904501132347933</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0198179144688106</v>
+        <v>0.0181853962273239</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -3845,19 +3845,19 @@
         <v>4072</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10376</v>
+        <v>10145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003960031674331417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0009796324988296449</v>
+        <v>0.0009749713142794992</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0100911823869994</v>
+        <v>0.009866024092461482</v>
       </c>
     </row>
     <row r="9">
@@ -3874,19 +3874,19 @@
         <v>6661</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2852</v>
+        <v>2839</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13502</v>
+        <v>12978</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.013177047188347</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005642180834016714</v>
+        <v>0.005616304639633893</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02670841490205432</v>
+        <v>0.02567211817961207</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -3895,19 +3895,19 @@
         <v>12969</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7105</v>
+        <v>6966</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26037</v>
+        <v>21769</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02480962539066795</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01359117294373136</v>
+        <v>0.01332638877802986</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04980961349037788</v>
+        <v>0.04164443739262787</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -3916,19 +3916,19 @@
         <v>19630</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11721</v>
+        <v>11904</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29680</v>
+        <v>30724</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01909067948989927</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01139851163559867</v>
+        <v>0.01157702704360817</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02886438320471338</v>
+        <v>0.0298796610417185</v>
       </c>
     </row>
     <row r="10">
@@ -3945,19 +3945,19 @@
         <v>498866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>492025</v>
+        <v>492549</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>502675</v>
+        <v>502688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.986822952811653</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9732915850979456</v>
+        <v>0.9743278818203854</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9943578191659833</v>
+        <v>0.9943836953603661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>463</v>
@@ -3966,19 +3966,19 @@
         <v>505696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>492475</v>
+        <v>494999</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>512683</v>
+        <v>512781</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.967400681948996</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9421090058244013</v>
+        <v>0.9469376502826877</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9807660979759546</v>
+        <v>0.9809546926189794</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>928</v>
@@ -3987,19 +3987,19 @@
         <v>1004562</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>994297</v>
+        <v>992653</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1013503</v>
+        <v>1013447</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9769492888357693</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9669668772913298</v>
+        <v>0.965367732745894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.985644620982959</v>
+        <v>0.9855902888480303</v>
       </c>
     </row>
     <row r="11">
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3977</v>
+        <v>5754</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002947661250860786</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01230861545314288</v>
+        <v>0.01780902751161816</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -4112,19 +4112,19 @@
         <v>3014</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>963</v>
+        <v>978</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8073</v>
+        <v>9838</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008863946280051728</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002831625340366619</v>
+        <v>0.002875252142860883</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02374043815325055</v>
+        <v>0.02893041751701475</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -4136,16 +4136,16 @@
         <v>989</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9301</v>
+        <v>9083</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005981407778807197</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001490848447189084</v>
+        <v>0.001491929828578383</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01402449272671988</v>
+        <v>0.01369578627570371</v>
       </c>
     </row>
     <row r="13">
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5885</v>
+        <v>6950</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00599397171751574</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01821302019459735</v>
+        <v>0.02151008150967007</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -4183,19 +4183,19 @@
         <v>20802</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13181</v>
+        <v>12681</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30574</v>
+        <v>31044</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06117116427769838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03876051258645773</v>
+        <v>0.03729132952420364</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0899071793996442</v>
+        <v>0.09129093954701152</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -4204,19 +4204,19 @@
         <v>22739</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15674</v>
+        <v>14758</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34329</v>
+        <v>32610</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03428767554100713</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02363427085667014</v>
+        <v>0.02225429550234586</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05176424629838559</v>
+        <v>0.04917247770093467</v>
       </c>
     </row>
     <row r="14">
@@ -4233,19 +4233,19 @@
         <v>320222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>315647</v>
+        <v>315438</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>322184</v>
+        <v>322187</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9910583670316234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9769010112158817</v>
+        <v>0.9762519755435911</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.997131569765682</v>
+        <v>0.9971408832048377</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>292</v>
@@ -4254,19 +4254,19 @@
         <v>316244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>306439</v>
+        <v>305906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>325261</v>
+        <v>325052</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9299648894422499</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9011316186913594</v>
+        <v>0.8995651668693553</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.956480587717363</v>
+        <v>0.9558676515583915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>607</v>
@@ -4275,19 +4275,19 @@
         <v>636466</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>624001</v>
+        <v>625201</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>645174</v>
+        <v>645452</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9597309166801856</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9409356838346363</v>
+        <v>0.94274429728999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.972861785132099</v>
+        <v>0.9732808431171515</v>
       </c>
     </row>
     <row r="15">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4711</v>
+        <v>4440</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002357502801623944</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01266545755654088</v>
+        <v>0.01193697612902645</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5517</v>
+        <v>4538</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00231827641404092</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01422560494459997</v>
+        <v>0.01170077463663993</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5434</v>
+        <v>6234</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002337479333017185</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007151990329279464</v>
+        <v>0.00820419493767134</v>
       </c>
     </row>
     <row r="17">
@@ -4463,19 +4463,19 @@
         <v>13516</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7669</v>
+        <v>7635</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21549</v>
+        <v>22024</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03484836565918798</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01977280967476556</v>
+        <v>0.01968468750610162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05556103291568794</v>
+        <v>0.05678471132483337</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -4484,19 +4484,19 @@
         <v>13516</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7668</v>
+        <v>7637</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22294</v>
+        <v>21241</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01778866724081476</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01009180260507736</v>
+        <v>0.01005117120672689</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02934136455556518</v>
+        <v>0.02795641561189987</v>
       </c>
     </row>
     <row r="18">
@@ -4513,7 +4513,7 @@
         <v>371079</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>367245</v>
+        <v>367516</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>371956</v>
@@ -4522,7 +4522,7 @@
         <v>0.9976424971983761</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9873345424434594</v>
+        <v>0.9880630238709736</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -4534,19 +4534,19 @@
         <v>373435</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>365270</v>
+        <v>364447</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>379366</v>
+        <v>379638</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.962833357926771</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9417816347478828</v>
+        <v>0.939660501917045</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9781256630688908</v>
+        <v>0.978826595077765</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>696</v>
@@ -4555,19 +4555,19 @@
         <v>744514</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>734834</v>
+        <v>736114</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>751079</v>
+        <v>750534</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9798738534261681</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9671335637174525</v>
+        <v>0.9688188610096597</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9885142365415566</v>
+        <v>0.9877964360582002</v>
       </c>
     </row>
     <row r="19">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6351</v>
+        <v>5660</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00536081623862944</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03003136623750061</v>
+        <v>0.02676467621243775</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6798</v>
+        <v>5200</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002635695987584918</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01580495241796039</v>
+        <v>0.01208925585076248</v>
       </c>
     </row>
     <row r="21">
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5729</v>
+        <v>5735</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005420747609763095</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02709286170673549</v>
+        <v>0.02712070222661353</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -4743,19 +4743,19 @@
         <v>5745</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1974</v>
+        <v>1990</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11984</v>
+        <v>11257</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02627749747883563</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.009027953943796402</v>
+        <v>0.009103453160499058</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0548097548696986</v>
+        <v>0.05148414228029188</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -4764,19 +4764,19 @@
         <v>6892</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2862</v>
+        <v>2984</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13560</v>
+        <v>13411</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01602307921546478</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006654460653307988</v>
+        <v>0.006938527226472547</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03152689032903095</v>
+        <v>0.0311788545995739</v>
       </c>
     </row>
     <row r="22">
@@ -4793,7 +4793,7 @@
         <v>209192</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>203465</v>
+        <v>204212</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>211472</v>
@@ -4802,7 +4802,7 @@
         <v>0.9892184361516074</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9621354334988876</v>
+        <v>0.9656686917122351</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -4814,19 +4814,19 @@
         <v>212902</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>206663</v>
+        <v>207390</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>216673</v>
+        <v>216657</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9737225025211643</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9451902451303008</v>
+        <v>0.9485158577197079</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9909720460562036</v>
+        <v>0.9908965468395009</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>398</v>
@@ -4835,19 +4835,19 @@
         <v>422094</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>415041</v>
+        <v>414963</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>426336</v>
+        <v>426184</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9813412247969503</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9649428433968537</v>
+        <v>0.9647613575438738</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9912024071741723</v>
+        <v>0.9908498312937264</v>
       </c>
     </row>
     <row r="23">
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4599</v>
+        <v>4957</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.00333724927858925</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01685077867936667</v>
+        <v>0.01816321760349255</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -4960,19 +4960,19 @@
         <v>5857</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1991</v>
+        <v>2534</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12700</v>
+        <v>11867</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02104848582577843</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007156430385224641</v>
+        <v>0.009108771813461512</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04564416582323065</v>
+        <v>0.0426502175334161</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -4981,19 +4981,19 @@
         <v>6767</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2881</v>
+        <v>2894</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13321</v>
+        <v>13438</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01227860050482011</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005226635275177922</v>
+        <v>0.00525161218903265</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02416982076500268</v>
+        <v>0.0243815678910748</v>
       </c>
     </row>
     <row r="25">
@@ -5010,19 +5010,19 @@
         <v>4894</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1930</v>
+        <v>1916</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11132</v>
+        <v>10741</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01793442510651859</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007071191207750249</v>
+        <v>0.007021932265116594</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04078904669920193</v>
+        <v>0.03935605604510997</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -5031,19 +5031,19 @@
         <v>11523</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5895</v>
+        <v>5867</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19685</v>
+        <v>19142</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04141451989823922</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02118710036541041</v>
+        <v>0.02108705951705071</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07074702301932632</v>
+        <v>0.06879750127622225</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -5052,19 +5052,19 @@
         <v>16418</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9905</v>
+        <v>9609</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26022</v>
+        <v>26133</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02978813017101826</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01797235024485045</v>
+        <v>0.01743463540364022</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04721374009143146</v>
+        <v>0.04741554161756083</v>
       </c>
     </row>
     <row r="26">
@@ -5081,19 +5081,19 @@
         <v>267101</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>261032</v>
+        <v>261401</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>270543</v>
+        <v>270957</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9787283256148922</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9564894588121594</v>
+        <v>0.957844149699656</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9913412570789777</v>
+        <v>0.9928587930157267</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>250</v>
@@ -5102,19 +5102,19 @@
         <v>260862</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>251434</v>
+        <v>251608</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>268142</v>
+        <v>267559</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9375369942759824</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9036516271590889</v>
+        <v>0.9042776077246534</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9637018425180057</v>
+        <v>0.9616047968229597</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>504</v>
@@ -5123,19 +5123,19 @@
         <v>527963</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>517542</v>
+        <v>516826</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>535950</v>
+        <v>535988</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9579332693241617</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9390262742291389</v>
+        <v>0.9377258517884692</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9724251463889523</v>
+        <v>0.9724939071478828</v>
       </c>
     </row>
     <row r="27">
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4998</v>
+        <v>5902</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001503614337323726</v>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.00761996044709923</v>
+        <v>0.008997553690770455</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -5248,19 +5248,19 @@
         <v>3900</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8987</v>
+        <v>10572</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005640518169580898</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001428274371192947</v>
+        <v>0.001430103766604128</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01299581771306226</v>
+        <v>0.01528902182293873</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -5269,19 +5269,19 @@
         <v>4887</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10298</v>
+        <v>10725</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003626589982679349</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001409498038147843</v>
+        <v>0.001411508950957912</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.00764240075976921</v>
+        <v>0.007959205321983539</v>
       </c>
     </row>
     <row r="29">
@@ -5298,19 +5298,19 @@
         <v>14537</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7547</v>
+        <v>7621</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25680</v>
+        <v>25539</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02216035864571622</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01150514537130687</v>
+        <v>0.01161747562805023</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03914715263498484</v>
+        <v>0.03893307780478172</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>55</v>
@@ -5319,19 +5319,19 @@
         <v>58820</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>44166</v>
+        <v>45527</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>74175</v>
+        <v>75841</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08506229005505495</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06387081510345662</v>
+        <v>0.06583922137491063</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1072683331867015</v>
+        <v>0.1096779989997763</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>66</v>
@@ -5340,19 +5340,19 @@
         <v>73357</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>58378</v>
+        <v>58498</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>93238</v>
+        <v>92925</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05444036172110666</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04332427761790911</v>
+        <v>0.0434133516675656</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06919478742043617</v>
+        <v>0.06896292359301404</v>
       </c>
     </row>
     <row r="30">
@@ -5369,19 +5369,19 @@
         <v>640451</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>628912</v>
+        <v>629100</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>647674</v>
+        <v>647230</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9763360270169601</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9587446916603636</v>
+        <v>0.9590312333564551</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9873477506315674</v>
+        <v>0.9866702683190398</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>575</v>
@@ -5390,19 +5390,19 @@
         <v>628772</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>613707</v>
+        <v>610467</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>643261</v>
+        <v>642754</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9092971917753642</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8875115366672754</v>
+        <v>0.882826497015618</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9302512903818602</v>
+        <v>0.9295172163053524</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1175</v>
@@ -5411,19 +5411,19 @@
         <v>1269223</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1248828</v>
+        <v>1249570</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1284451</v>
+        <v>1284659</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9419330482962139</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9267972636079327</v>
+        <v>0.9273482271555139</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9532345785224109</v>
+        <v>0.953388762769627</v>
       </c>
     </row>
     <row r="31">
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8059</v>
+        <v>7669</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003028655727267139</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01035936661706844</v>
+        <v>0.009857722081980805</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -5536,19 +5536,19 @@
         <v>9032</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4039</v>
+        <v>4005</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17837</v>
+        <v>17958</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01103427711435366</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004934601003946781</v>
+        <v>0.004892505684121187</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02179179438290462</v>
+        <v>0.0219390285425046</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -5557,19 +5557,19 @@
         <v>11388</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6011</v>
+        <v>5788</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>20581</v>
+        <v>21989</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007133157822004769</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003765314321851273</v>
+        <v>0.003625297477448464</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01289129782335165</v>
+        <v>0.01377310330194862</v>
       </c>
     </row>
     <row r="33">
@@ -5586,19 +5586,19 @@
         <v>45545</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>31787</v>
+        <v>32933</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>59713</v>
+        <v>60033</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05854352758297698</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04085869176238412</v>
+        <v>0.04233226668294312</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07675487954927894</v>
+        <v>0.07716635461234234</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>84</v>
@@ -5607,19 +5607,19 @@
         <v>90758</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>73736</v>
+        <v>72926</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>112405</v>
+        <v>108809</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1108802574644723</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.09008380789227069</v>
+        <v>0.0890948243673612</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.137326333581183</v>
+        <v>0.1329328969014627</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>127</v>
@@ -5628,19 +5628,19 @@
         <v>136303</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>115216</v>
+        <v>115489</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>161012</v>
+        <v>159136</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08537669980578842</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07216839516133187</v>
+        <v>0.07233937775541917</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1008535068239878</v>
+        <v>0.0996787663071013</v>
       </c>
     </row>
     <row r="34">
@@ -5657,19 +5657,19 @@
         <v>730066</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>715411</v>
+        <v>715996</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>743635</v>
+        <v>743634</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9384278166897558</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9195902614293879</v>
+        <v>0.9203418666238057</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9558697996283485</v>
+        <v>0.9558679993481225</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>660</v>
@@ -5678,19 +5678,19 @@
         <v>718736</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>695974</v>
+        <v>698891</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>737863</v>
+        <v>736548</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.878085465421174</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8502775713644735</v>
+        <v>0.8538411878130635</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9014532875741064</v>
+        <v>0.8998463653305202</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1331</v>
@@ -5699,19 +5699,19 @@
         <v>1448801</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1424758</v>
+        <v>1423246</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1470799</v>
+        <v>1471224</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9074901423722068</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8924301138642893</v>
+        <v>0.891483353247546</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9212690219157074</v>
+        <v>0.9215356459281042</v>
       </c>
     </row>
     <row r="35">
@@ -5803,19 +5803,19 @@
         <v>7216</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3055</v>
+        <v>2901</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15468</v>
+        <v>14606</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.002113940047598578</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0008950015475120834</v>
+        <v>0.0008498926530995436</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.004531095273735143</v>
+        <v>0.004278691944179949</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>31</v>
@@ -5824,19 +5824,19 @@
         <v>32967</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>22766</v>
+        <v>23275</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>46227</v>
+        <v>47946</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.009300024991978049</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006422428115842532</v>
+        <v>0.006566075724993212</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0130407750854865</v>
+        <v>0.0135256163118233</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>38</v>
@@ -5845,19 +5845,19 @@
         <v>40183</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27508</v>
+        <v>28164</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>53521</v>
+        <v>54831</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005774701539821827</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.00395321235172104</v>
+        <v>0.004047420958963389</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.007691513733287239</v>
+        <v>0.007879761677384245</v>
       </c>
     </row>
     <row r="37">
@@ -5874,19 +5874,19 @@
         <v>78084</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>60268</v>
+        <v>61524</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>97674</v>
+        <v>97404</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02287416183049293</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01765508754495761</v>
+        <v>0.0180230642263311</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0286128576166573</v>
+        <v>0.02853353024088105</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>218</v>
@@ -5895,19 +5895,19 @@
         <v>230131</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>201498</v>
+        <v>202954</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>259908</v>
+        <v>263880</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06492082944992032</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05684332753416757</v>
+        <v>0.05725406242052262</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0733209449242667</v>
+        <v>0.07444140474804668</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>291</v>
@@ -5916,19 +5916,19 @@
         <v>308216</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>277604</v>
+        <v>273102</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>340800</v>
+        <v>344912</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04429372796266053</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03989446862355961</v>
+        <v>0.03924749613417682</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04897649909688335</v>
+        <v>0.04956741842757821</v>
       </c>
     </row>
     <row r="38">
@@ -5945,19 +5945,19 @@
         <v>3328350</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3307293</v>
+        <v>3307965</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3346908</v>
+        <v>3345639</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9750118981219085</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9688432484710132</v>
+        <v>0.9690400890092666</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9804482128715629</v>
+        <v>0.9800764968322371</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3036</v>
@@ -5966,19 +5966,19 @@
         <v>3281701</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3249813</v>
+        <v>3247122</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3311690</v>
+        <v>3310069</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9257791455581016</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9167833013683202</v>
+        <v>0.9160243473259827</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9342390941738298</v>
+        <v>0.933781964674817</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6153</v>
@@ -5987,19 +5987,19 @@
         <v>6610050</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6573681</v>
+        <v>6572452</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6644186</v>
+        <v>6649265</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9499315704975176</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.944704890984043</v>
+        <v>0.9445282913244446</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.954837178854506</v>
+        <v>0.9555671298621121</v>
       </c>
     </row>
     <row r="39">
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4634</v>
+        <v>4619</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00319456273814753</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0160526765574427</v>
+        <v>0.01599907278282524</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4289</v>
+        <v>5100</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001595660359372055</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007420523304458462</v>
+        <v>0.008823626560124516</v>
       </c>
     </row>
     <row r="5">
@@ -6398,19 +6398,19 @@
         <v>4717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10300</v>
+        <v>10455</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01630487823826115</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006388051260678866</v>
+        <v>0.006396242119132665</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03560504261505838</v>
+        <v>0.03613983654794291</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -6419,19 +6419,19 @@
         <v>7942</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2837</v>
+        <v>2830</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16206</v>
+        <v>15578</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02750878527569585</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009828130168856621</v>
+        <v>0.009802697142115555</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0561322026278532</v>
+        <v>0.05395852310643074</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -6440,19 +6440,19 @@
         <v>12659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6479</v>
+        <v>6645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21371</v>
+        <v>21067</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02190114658392246</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01121008650805548</v>
+        <v>0.01149678602966077</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03697404763887287</v>
+        <v>0.03644798468358628</v>
       </c>
     </row>
     <row r="6">
@@ -6469,19 +6469,19 @@
         <v>284573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>278990</v>
+        <v>278835</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>287442</v>
+        <v>287440</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9836951217617389</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9643949573849415</v>
+        <v>0.9638601634520568</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9936119487393211</v>
+        <v>0.9936037578808673</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>269</v>
@@ -6490,19 +6490,19 @@
         <v>279839</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>271514</v>
+        <v>271809</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>285013</v>
+        <v>284966</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9692966519861567</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9404611725611863</v>
+        <v>0.9414820983997128</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9872191638197215</v>
+        <v>0.9870573890443922</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>527</v>
@@ -6511,19 +6511,19 @@
         <v>564412</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>555081</v>
+        <v>555880</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>570835</v>
+        <v>570426</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9765031930567055</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.960359913969798</v>
+        <v>0.9617422224185254</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.987615997033655</v>
+        <v>0.9869083612769515</v>
       </c>
     </row>
     <row r="7">
@@ -6675,19 +6675,19 @@
         <v>3138</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8338</v>
+        <v>8425</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005999471174117282</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00187168905147596</v>
+        <v>0.001861802714646711</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01593969951256608</v>
+        <v>0.01610677588977927</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -6696,19 +6696,19 @@
         <v>3138</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8329</v>
+        <v>8380</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003066108176318304</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0009548858756935607</v>
+        <v>0.0009588215180075053</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.008137412432731342</v>
+        <v>0.008187794239464133</v>
       </c>
     </row>
     <row r="10">
@@ -6738,19 +6738,19 @@
         <v>519946</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>514746</v>
+        <v>514659</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>522105</v>
+        <v>522110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9940005288258827</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.984060300487434</v>
+        <v>0.983893224110221</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9981283109485241</v>
+        <v>0.9981381972853532</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>954</v>
@@ -6759,19 +6759,19 @@
         <v>1020383</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1015192</v>
+        <v>1015141</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1022544</v>
+        <v>1022540</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9969338918236818</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9918625875672689</v>
+        <v>0.9918122057605361</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9990451141243064</v>
+        <v>0.9990411784819925</v>
       </c>
     </row>
     <row r="11">
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6001</v>
+        <v>5194</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.00513284906993395</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01805028582994906</v>
+        <v>0.0156210946506609</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5977</v>
+        <v>5170</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00262511481365579</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.009194403654725682</v>
+        <v>0.007953579253718221</v>
       </c>
     </row>
     <row r="13">
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6381</v>
+        <v>5059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003136713257317723</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0200916545932202</v>
+        <v>0.01593010165237552</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -6947,19 +6947,19 @@
         <v>19587</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13122</v>
+        <v>12226</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29287</v>
+        <v>28787</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05891534163381922</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03946915971506532</v>
+        <v>0.03677345132387157</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08808891770298334</v>
+        <v>0.08658516355369553</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -6968,19 +6968,19 @@
         <v>20584</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12804</v>
+        <v>12998</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30322</v>
+        <v>30677</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03166381421850759</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01969696740590283</v>
+        <v>0.01999423274763463</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04664398086099306</v>
+        <v>0.0471905558578579</v>
       </c>
     </row>
     <row r="14">
@@ -6997,7 +6997,7 @@
         <v>316605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311220</v>
+        <v>312542</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>317601</v>
@@ -7006,7 +7006,7 @@
         <v>0.9968632867426823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9799083454067802</v>
+        <v>0.9840698983476245</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -7018,19 +7018,19 @@
         <v>311174</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>301397</v>
+        <v>302139</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>318338</v>
+        <v>318693</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9359518092962469</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9065437412953294</v>
+        <v>0.9087754490968938</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9575011336099903</v>
+        <v>0.9585685015342599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>638</v>
@@ -7039,19 +7039,19 @@
         <v>627779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>617662</v>
+        <v>617424</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>635934</v>
+        <v>635432</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9657110709678366</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9501488145769109</v>
+        <v>0.9497828712999679</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9782559086212208</v>
+        <v>0.9774842178203883</v>
       </c>
     </row>
     <row r="15">
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6177</v>
+        <v>5331</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002604728756614176</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0167772595389821</v>
+        <v>0.01448029299255694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5793</v>
+        <v>6568</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004952257781861827</v>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0149988200787799</v>
+        <v>0.01700471747374644</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -7185,19 +7185,19 @@
         <v>2872</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7995</v>
+        <v>7817</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003806621668097128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001230019688999191</v>
+        <v>0.00122811571912633</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01059701908461241</v>
+        <v>0.01036167139011192</v>
       </c>
     </row>
     <row r="17">
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5023</v>
+        <v>5031</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002740381056168544</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01364229682052184</v>
+        <v>0.01366350346207368</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -7235,19 +7235,19 @@
         <v>7574</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3699</v>
+        <v>3703</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13743</v>
+        <v>14303</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01960837357312343</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009577730545338109</v>
+        <v>0.009587086611560122</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03558048463731627</v>
+        <v>0.03703120659883895</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -7256,19 +7256,19 @@
         <v>8583</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4638</v>
+        <v>3787</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16263</v>
+        <v>15418</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01137649180028887</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006147271983313691</v>
+        <v>0.005019420757171811</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02155700001323354</v>
+        <v>0.02043679999614671</v>
       </c>
     </row>
     <row r="18">
@@ -7285,7 +7285,7 @@
         <v>366203</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>361304</v>
+        <v>361582</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>368171</v>
@@ -7294,7 +7294,7 @@
         <v>0.9946548901872173</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9813471346215078</v>
+        <v>0.9821026372954187</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -7306,19 +7306,19 @@
         <v>376763</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>369789</v>
+        <v>368878</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>381507</v>
+        <v>381482</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9754393686450148</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9573813646452202</v>
+        <v>0.9550230071619945</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9877201853761612</v>
+        <v>0.9876564427301835</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>697</v>
@@ -7327,19 +7327,19 @@
         <v>742966</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>734524</v>
+        <v>735305</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>747901</v>
+        <v>748643</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.984816886531614</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9736276464076907</v>
+        <v>0.97466204446233</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9913582658478629</v>
+        <v>0.9923420195621243</v>
       </c>
     </row>
     <row r="19">
@@ -7478,19 +7478,19 @@
         <v>2817</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8055</v>
+        <v>8558</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01333805692697361</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004160556741422607</v>
+        <v>0.004166125789438504</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03813724518977953</v>
+        <v>0.0405150273226036</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -7502,16 +7502,16 @@
         <v>823</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7538</v>
+        <v>5991</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01161072762969096</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003778249632515325</v>
+        <v>0.003778051225550501</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03461825403122248</v>
+        <v>0.02750982631003094</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -7520,19 +7520,19 @@
         <v>5346</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1796</v>
+        <v>1859</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10987</v>
+        <v>11440</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0124612268602157</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004185835691626974</v>
+        <v>0.004333031281371274</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02561173908257259</v>
+        <v>0.02666823908112956</v>
       </c>
     </row>
     <row r="22">
@@ -7549,19 +7549,19 @@
         <v>208404</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>203166</v>
+        <v>202663</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>210342</v>
+        <v>210341</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9866619430730263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9618627548102188</v>
+        <v>0.9594849726773966</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9958394432585774</v>
+        <v>0.9958338742105615</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>219</v>
@@ -7570,7 +7570,7 @@
         <v>215232</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>210222</v>
+        <v>211769</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>216937</v>
@@ -7579,10 +7579,10 @@
         <v>0.988389272370309</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9653817459687776</v>
+        <v>0.9724901736899689</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9962217503674847</v>
+        <v>0.9962219487744495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>428</v>
@@ -7591,19 +7591,19 @@
         <v>423635</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>417994</v>
+        <v>417541</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>427185</v>
+        <v>427122</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9875387731397843</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9743882609174274</v>
+        <v>0.9733317609188705</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.995814164308373</v>
+        <v>0.9956669687186287</v>
       </c>
     </row>
     <row r="23">
@@ -7742,19 +7742,19 @@
         <v>2902</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>951</v>
+        <v>927</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7805</v>
+        <v>7845</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01103031582871834</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003612617193789749</v>
+        <v>0.003521574028781329</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0296629084449664</v>
+        <v>0.02981468183879008</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -7763,19 +7763,19 @@
         <v>2717</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8068</v>
+        <v>7287</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009986625319439928</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003274045839082038</v>
+        <v>0.003278273370756155</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02964873338657576</v>
+        <v>0.02678021932300379</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -7784,19 +7784,19 @@
         <v>5620</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1901</v>
+        <v>1988</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11414</v>
+        <v>11838</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01049971546290661</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003551597063237512</v>
+        <v>0.003715013952104142</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02132557934100222</v>
+        <v>0.02211693819411111</v>
       </c>
     </row>
     <row r="26">
@@ -7813,19 +7813,19 @@
         <v>260221</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>255318</v>
+        <v>255278</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>262172</v>
+        <v>262196</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9889696841712816</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9703370915550336</v>
+        <v>0.9701853181612098</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9963873828062102</v>
+        <v>0.9964784259712187</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>259</v>
@@ -7834,19 +7834,19 @@
         <v>269386</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>264035</v>
+        <v>264816</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>271212</v>
+        <v>271211</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9900133746805601</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9703512666134243</v>
+        <v>0.9732197806769962</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9967259541609179</v>
+        <v>0.9967217266292439</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>515</v>
@@ -7855,19 +7855,19 @@
         <v>529606</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>523812</v>
+        <v>523388</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>533325</v>
+        <v>533238</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9895002845370934</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.978674420658997</v>
+        <v>0.9778830618058889</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9964484029367625</v>
+        <v>0.9962849860478964</v>
       </c>
     </row>
     <row r="27">
@@ -7972,19 +7972,19 @@
         <v>2907</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7912</v>
+        <v>7746</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004235838421200069</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001344282210994383</v>
+        <v>0.001349865886281082</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01152748265762042</v>
+        <v>0.01128427819854548</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -7993,19 +7993,19 @@
         <v>2907</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8834</v>
+        <v>7827</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002171936151208357</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.000691280782556081</v>
+        <v>0.0006900653681045211</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006598850626055927</v>
+        <v>0.005847103947641861</v>
       </c>
     </row>
     <row r="29">
@@ -8022,19 +8022,19 @@
         <v>6477</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2216</v>
+        <v>2170</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12993</v>
+        <v>13460</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.00992947767179719</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003397346432996935</v>
+        <v>0.003327001224049741</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01991968540813465</v>
+        <v>0.0206357421788511</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -8043,19 +8043,19 @@
         <v>16737</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9543</v>
+        <v>9582</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26848</v>
+        <v>26682</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0243838318046763</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01390318780561415</v>
+        <v>0.01395912430628721</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03911471060726303</v>
+        <v>0.03887203808018186</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>22</v>
@@ -8064,19 +8064,19 @@
         <v>23214</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14040</v>
+        <v>14957</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34090</v>
+        <v>33761</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01734098187990004</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01048780980559908</v>
+        <v>0.01117335134332557</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02546624351514764</v>
+        <v>0.02522001379600717</v>
       </c>
     </row>
     <row r="30">
@@ -8093,19 +8093,19 @@
         <v>645779</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>639263</v>
+        <v>638796</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>650040</v>
+        <v>650086</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9900705223282028</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9800803145918654</v>
+        <v>0.9793642578211468</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9966026535670031</v>
+        <v>0.9966729987759503</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>623</v>
@@ -8114,19 +8114,19 @@
         <v>666754</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>655321</v>
+        <v>656033</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>674419</v>
+        <v>674063</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9713803297741236</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9547248738180538</v>
+        <v>0.9557618102428954</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9825487208577949</v>
+        <v>0.9820288418610505</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1193</v>
@@ -8135,19 +8135,19 @@
         <v>1312533</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1300630</v>
+        <v>1301148</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1321909</v>
+        <v>1321379</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9804870819688916</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9715953220887088</v>
+        <v>0.9719826195763871</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9874911207079494</v>
+        <v>0.987095014190478</v>
       </c>
     </row>
     <row r="31">
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6143</v>
+        <v>5295</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.001361229635617806</v>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007898893952292626</v>
+        <v>0.006808461794732873</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -8260,19 +8260,19 @@
         <v>11241</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6189</v>
+        <v>6051</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21252</v>
+        <v>19652</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01362409830827887</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007501119697763511</v>
+        <v>0.00733417957061924</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02575739843644258</v>
+        <v>0.02381822771471479</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>12</v>
@@ -8281,19 +8281,19 @@
         <v>12300</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6339</v>
+        <v>6489</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21283</v>
+        <v>20726</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007674092560182916</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003955284738874189</v>
+        <v>0.004048453988527975</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0132788588343636</v>
+        <v>0.01293140466433204</v>
       </c>
     </row>
     <row r="33">
@@ -8310,19 +8310,19 @@
         <v>10960</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5827</v>
+        <v>5819</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>19006</v>
+        <v>19553</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.014093850831048</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.007493149976989509</v>
+        <v>0.007483050528927285</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02443982957550878</v>
+        <v>0.0251426839118354</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>45</v>
@@ -8331,19 +8331,19 @@
         <v>45843</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>34120</v>
+        <v>34578</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>60513</v>
+        <v>59993</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05556121350304608</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04135300602729278</v>
+        <v>0.04190864241043523</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0733416187423668</v>
+        <v>0.07271157810918147</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>56</v>
@@ -8352,19 +8352,19 @@
         <v>56803</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>43933</v>
+        <v>42506</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>72260</v>
+        <v>71323</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03544103992515951</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02741077442652283</v>
+        <v>0.02652080681781499</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04508510661305449</v>
+        <v>0.04450051644962503</v>
       </c>
     </row>
     <row r="34">
@@ -8381,19 +8381,19 @@
         <v>765643</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>757271</v>
+        <v>757346</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>770819</v>
+        <v>771089</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9845449195333342</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9737790849090849</v>
+        <v>0.9738755907651979</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9912001560044604</v>
+        <v>0.9915481669269671</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>698</v>
@@ -8402,19 +8402,19 @@
         <v>768003</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>751372</v>
+        <v>752810</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>781451</v>
+        <v>780867</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9308146881886751</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.910657787873036</v>
+        <v>0.9124006411433506</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9471135102075373</v>
+        <v>0.9464053923054394</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1435</v>
@@ -8423,19 +8423,19 @@
         <v>1533647</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1518103</v>
+        <v>1516551</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1548094</v>
+        <v>1549199</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9568848675146576</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9471861515377719</v>
+        <v>0.9462182224723481</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9658983509329025</v>
+        <v>0.9665877739846623</v>
       </c>
     </row>
     <row r="35">
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6919</v>
+        <v>6800</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0005969537922999358</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.002047163896549279</v>
+        <v>0.002011911063695484</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>19</v>
@@ -8548,19 +8548,19 @@
         <v>18690</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>11424</v>
+        <v>11826</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>28036</v>
+        <v>29163</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005291879159521401</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003234526487247856</v>
+        <v>0.003348358932337195</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.007937909971764603</v>
+        <v>0.00825701059612001</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>21</v>
@@ -8569,19 +8569,19 @@
         <v>20708</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>13143</v>
+        <v>13258</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>30973</v>
+        <v>31997</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002996072809712007</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001901521707726091</v>
+        <v>0.001918271411385665</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.004481310870668605</v>
+        <v>0.004629524879584582</v>
       </c>
     </row>
     <row r="37">
@@ -8598,19 +8598,19 @@
         <v>29878</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19766</v>
+        <v>20612</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>41964</v>
+        <v>43353</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.008840390052148124</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.005848412825723558</v>
+        <v>0.006098794929536651</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01241624656480502</v>
+        <v>0.01282711109418958</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>106</v>
@@ -8619,19 +8619,19 @@
         <v>106067</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>87404</v>
+        <v>87436</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>128785</v>
+        <v>128657</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03003151411472997</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02474724230687034</v>
+        <v>0.02475644609526417</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0364640014751003</v>
+        <v>0.03642763634586436</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>136</v>
@@ -8640,19 +8640,19 @@
         <v>135945</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>115204</v>
+        <v>112853</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>162147</v>
+        <v>162480</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01966910931014277</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01666814647164104</v>
+        <v>0.01632796811257146</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02346004366650107</v>
+        <v>0.02350820045874655</v>
       </c>
     </row>
     <row r="38">
@@ -8669,19 +8669,19 @@
         <v>3347865</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3334869</v>
+        <v>3334404</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3358062</v>
+        <v>3357283</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9905626561555519</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9867174586755945</v>
+        <v>0.9865799675466194</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9935796889056123</v>
+        <v>0.993349259068212</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3201</v>
@@ -8690,19 +8690,19 @@
         <v>3407095</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3384170</v>
+        <v>3385586</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3427387</v>
+        <v>3427227</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9646766067257486</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9581856507836909</v>
+        <v>0.9585865137178128</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9704221523251015</v>
+        <v>0.9703767682029634</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6387</v>
@@ -8711,19 +8711,19 @@
         <v>6754960</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6725392</v>
+        <v>6728466</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6776097</v>
+        <v>6780739</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9773348178801452</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9730567713283371</v>
+        <v>0.9735015492373231</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9803930224700869</v>
+        <v>0.9810646375191001</v>
       </c>
     </row>
     <row r="39">
